--- a/example/projektwoche.xlsx
+++ b/example/projektwoche.xlsx
@@ -285,18 +285,18 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="256" min="6" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.63775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="6" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -429,17 +429,17 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="256" min="8" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.63775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="8" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -482,10 +482,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
